--- a/Documents-Submission/Team_3_UCID_Itteration2Update (1) (1).xlsx
+++ b/Documents-Submission/Team_3_UCID_Itteration2Update (1) (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Github\SE-project\SE-1-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hediemoradi/Repos/SE-1-Project/Documents-Submission/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2B26DA-D6CC-40BA-86DE-28FDC04213D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCDEC9F4-888E-1145-BFF4-4B37FB6A9B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7960" yWindow="1460" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,10 +172,6 @@
     <t>View inventory screen (From specific vehicle)</t>
   </si>
   <si>
-    <t>order conformation screen
-Also, user can navigate back to list of vehicles (home) from bottom navigation.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 View list of Vehicle
 </t>
@@ -333,12 +329,6 @@
     <t>NOTE: To address all comments and feedbacks which our team received after Iteration 1, we decided to shuffle our UCID and do our best to match all the wordings,
 functions, and attributes with other documents. With these changes, we are hoping to provide clarity for you and limit any further confusion. Therefore, since most of the rows have been effected
 we decided to provide this note instead of highlighting everything and kindly ask you to review them.</t>
-  </si>
-  <si>
-    <t>Add/ Modify Card Information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This function is performed after checkout. If the payment methods is not added in profile, user is prompted to add payment information. If the card information has been already added, we will propmt the user to conform the card or modify it as they want. Then user can complete his purchase. Order conformation number will be given to the user after the payment is done. </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1274,12 +1264,40 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Order Conformation screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Also, user can navigate back to list of vehicles (home) from bottom navigation.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">This function is performed after checkout. If the payment methods is not added in profile, user can use go to modify/add card button and be navigated to profile to add payment information. If the card information has been already added, we will present the user with the card info except CVV to be entered for varification manually. Then user can complete his purchase. Order conformation number will be given to the user after the payment is done. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1389,6 +1407,13 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1562,7 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1758,6 +1783,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2151,31 +2182,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="15.796875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="78.69921875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="39.19921875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="39.796875" style="44" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="39.1640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="39.83203125" style="44" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="26" customWidth="1"/>
-    <col min="6" max="6" width="52.796875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" style="31" customWidth="1"/>
     <col min="7" max="7" width="71.5" style="34" customWidth="1"/>
-    <col min="8" max="8" width="73.796875" style="41" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" style="3" customWidth="1"/>
-    <col min="10" max="15" width="10.796875" style="2" customWidth="1"/>
-    <col min="16" max="1025" width="10.796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="73.83203125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="3" customWidth="1"/>
+    <col min="10" max="15" width="10.83203125" style="2" customWidth="1"/>
+    <col min="16" max="1025" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1025" s="67" customFormat="1" ht="102" customHeight="1">
       <c r="A1" s="66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" s="51" customFormat="1" ht="23.4">
+    <row r="2" spans="1:1025" s="51" customFormat="1" ht="24">
       <c r="A2" s="52"/>
       <c r="B2" s="53" t="s">
         <v>0</v>
@@ -2187,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="57" t="s">
         <v>3</v>
@@ -3216,7 +3247,7 @@
       <c r="AMJ2" s="50"/>
       <c r="AMK2" s="50"/>
     </row>
-    <row r="3" spans="1:1025" ht="261">
+    <row r="3" spans="1:1025" ht="285">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -3230,19 +3261,19 @@
         <v>35</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F3" s="27" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H3" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1025" ht="87">
+    <row r="4" spans="1:1025" ht="95">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -3265,36 +3296,36 @@
         <v>41</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" ht="87">
+    <row r="5" spans="1:1025" ht="114">
       <c r="A5" s="13">
         <v>2.1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>21</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" ht="87">
+    <row r="6" spans="1:1025" ht="95">
       <c r="A6" s="13">
         <v>3</v>
       </c>
@@ -3314,10 +3345,10 @@
         <v>15</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:1025" ht="409.6">
@@ -3337,16 +3368,16 @@
         <v>8</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" ht="261">
+    <row r="8" spans="1:1025" ht="285">
       <c r="A8" s="13">
         <v>5</v>
       </c>
@@ -3363,16 +3394,16 @@
         <v>19</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" s="6" customFormat="1" ht="139.19999999999999">
+    <row r="9" spans="1:1025" s="6" customFormat="1" ht="152">
       <c r="A9" s="13">
         <v>6</v>
       </c>
@@ -3389,13 +3420,13 @@
         <v>25</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -4415,7 +4446,7 @@
       <c r="AMJ9" s="5"/>
       <c r="AMK9" s="5"/>
     </row>
-    <row r="10" spans="1:1025" s="6" customFormat="1" ht="121.8">
+    <row r="10" spans="1:1025" s="6" customFormat="1" ht="133">
       <c r="A10" s="13">
         <v>7</v>
       </c>
@@ -4426,19 +4457,19 @@
         <v>20</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="23" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -5458,7 +5489,7 @@
       <c r="AMJ10" s="5"/>
       <c r="AMK10" s="5"/>
     </row>
-    <row r="11" spans="1:1025" s="6" customFormat="1" ht="104.4">
+    <row r="11" spans="1:1025" s="6" customFormat="1" ht="114">
       <c r="A11" s="13">
         <v>8</v>
       </c>
@@ -5478,10 +5509,10 @@
         <v>21</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -6501,7 +6532,7 @@
       <c r="AMJ11" s="5"/>
       <c r="AMK11" s="5"/>
     </row>
-    <row r="12" spans="1:1025" s="6" customFormat="1" ht="121.8">
+    <row r="12" spans="1:1025" s="6" customFormat="1" ht="133">
       <c r="A12" s="13">
         <v>9</v>
       </c>
@@ -6512,16 +6543,16 @@
         <v>23</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H12" s="38" t="s">
         <v>26</v>
@@ -7544,7 +7575,7 @@
       <c r="AMJ12" s="5"/>
       <c r="AMK12" s="5"/>
     </row>
-    <row r="13" spans="1:1025" s="6" customFormat="1" ht="87">
+    <row r="13" spans="1:1025" s="6" customFormat="1" ht="114">
       <c r="A13" s="13">
         <v>10</v>
       </c>
@@ -7561,13 +7592,13 @@
         <v>21</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -8587,30 +8618,30 @@
       <c r="AMJ13" s="5"/>
       <c r="AMK13" s="5"/>
     </row>
-    <row r="14" spans="1:1025" s="6" customFormat="1" ht="121.8">
+    <row r="14" spans="1:1025" s="6" customFormat="1" ht="152">
       <c r="A14" s="13">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>78</v>
+      <c r="B14" s="68" t="s">
+        <v>128</v>
       </c>
       <c r="C14" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>44</v>
+      <c r="G14" s="33" t="s">
+        <v>129</v>
       </c>
-      <c r="H14" s="38" t="s">
-        <v>79</v>
+      <c r="H14" s="69" t="s">
+        <v>130</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -9630,12 +9661,12 @@
       <c r="AMJ14" s="5"/>
       <c r="AMK14" s="5"/>
     </row>
-    <row r="15" spans="1:1025" s="9" customFormat="1" ht="174">
+    <row r="15" spans="1:1025" s="9" customFormat="1" ht="190">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>22</v>
@@ -9644,16 +9675,16 @@
         <v>33</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H15" s="39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -10673,30 +10704,30 @@
       <c r="AMJ15" s="8"/>
       <c r="AMK15" s="8"/>
     </row>
-    <row r="16" spans="1:1025" s="9" customFormat="1" ht="104.4">
+    <row r="16" spans="1:1025" s="9" customFormat="1" ht="114">
       <c r="A16" s="13">
         <v>13</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="29" t="s">
+      <c r="G16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="60" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -11716,30 +11747,30 @@
       <c r="AMJ16" s="8"/>
       <c r="AMK16" s="8"/>
     </row>
-    <row r="17" spans="1:1025" s="9" customFormat="1" ht="104.4">
+    <row r="17" spans="1:1025" s="9" customFormat="1" ht="114">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C17" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>65</v>
-      </c>
       <c r="H17" s="39" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
@@ -12759,12 +12790,12 @@
       <c r="AMJ17" s="8"/>
       <c r="AMK17" s="8"/>
     </row>
-    <row r="18" spans="1:1025" s="9" customFormat="1" ht="174">
+    <row r="18" spans="1:1025" s="9" customFormat="1" ht="190">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>22</v>
@@ -12773,16 +12804,16 @@
         <v>30</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -13802,12 +13833,12 @@
       <c r="AMJ18" s="8"/>
       <c r="AMK18" s="8"/>
     </row>
-    <row r="19" spans="1:1025" s="9" customFormat="1" ht="139.19999999999999">
+    <row r="19" spans="1:1025" s="9" customFormat="1" ht="152">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="46" t="s">
         <v>22</v>
@@ -13819,13 +13850,13 @@
         <v>21</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H19" s="39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
@@ -14845,30 +14876,30 @@
       <c r="AMJ19" s="8"/>
       <c r="AMK19" s="8"/>
     </row>
-    <row r="20" spans="1:1025" s="9" customFormat="1" ht="104.4">
+    <row r="20" spans="1:1025" s="9" customFormat="1" ht="114">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C20" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H20" s="39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -15888,12 +15919,12 @@
       <c r="AMJ20" s="8"/>
       <c r="AMK20" s="8"/>
     </row>
-    <row r="21" spans="1:1025" s="9" customFormat="1" ht="69.599999999999994">
+    <row r="21" spans="1:1025" s="9" customFormat="1" ht="95">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C21" s="46" t="s">
         <v>22</v>
@@ -15902,16 +15933,16 @@
         <v>30</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F21" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H21" s="60" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -16931,30 +16962,30 @@
       <c r="AMJ21" s="8"/>
       <c r="AMK21" s="8"/>
     </row>
-    <row r="22" spans="1:1025" s="9" customFormat="1" ht="52.2">
+    <row r="22" spans="1:1025" s="9" customFormat="1" ht="76">
       <c r="A22" s="13">
         <v>19</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="46" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="29" t="s">
-        <v>71</v>
-      </c>
       <c r="G22" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H22" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -17974,12 +18005,12 @@
       <c r="AMJ22" s="8"/>
       <c r="AMK22" s="8"/>
     </row>
-    <row r="23" spans="1:1025" s="12" customFormat="1" ht="139.19999999999999">
+    <row r="23" spans="1:1025" s="12" customFormat="1" ht="152">
       <c r="A23" s="13">
         <v>20</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" s="47" t="s">
         <v>28</v>
@@ -17991,10 +18022,10 @@
         <v>8</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>29</v>
@@ -19017,30 +19048,30 @@
       <c r="AMJ23" s="11"/>
       <c r="AMK23" s="11"/>
     </row>
-    <row r="24" spans="1:1025" s="12" customFormat="1" ht="104.4">
+    <row r="24" spans="1:1025" s="12" customFormat="1" ht="114">
       <c r="A24" s="13">
         <v>21</v>
       </c>
       <c r="B24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="25" t="s">
+      <c r="H24" s="40" t="s">
         <v>60</v>
-      </c>
-      <c r="F24" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>61</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
